--- a/logsConSeguridad/1-80-100/1-80-100.xlsx
+++ b/logsConSeguridad/1-80-100/1-80-100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilalondono/Documents/Universidad/Semestre5/Infracomp/caso3_mc.londono_cf.infante/logsConSeguridad/1-80-100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B9CDA-CD71-3A46-8D87-B47020A9AEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C4F6A5-24D1-564D-808B-3548A161817A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0F3BE935-D77C-184F-8BFA-49FE1FAA9502}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{0F3BE935-D77C-184F-8BFA-49FE1FAA9502}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Datos" sheetId="1" r:id="rId1"/>
@@ -1752,9 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88693B-13C6-2647-BBAE-FE29802D129D}">
   <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E801"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15381,5 +15379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>